--- a/public/files/template/inventory/rkbu.xlsx
+++ b/public/files/template/inventory/rkbu.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\newepuskesmas\public\files\template\inventory\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,9 +24,6 @@
     <t>DAFTAR KEBUTUHAN  BARANG UNIT (RKBU)</t>
   </si>
   <si>
-    <t>TAHUN ANGGARAN 2013</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -96,12 +88,15 @@
   </si>
   <si>
     <t>[a.no;block=tbs:row]</t>
+  </si>
+  <si>
+    <t>TAHUN ANGGARAN [b.tahun]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -175,18 +170,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -248,7 +243,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -283,7 +278,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -460,7 +455,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -471,7 +466,7 @@
   <dimension ref="A3:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,16 +482,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -508,16 +503,16 @@
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="A4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -530,104 +525,104 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="11" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5">
+        <v>4</v>
+      </c>
+      <c r="E12" s="5">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5">
+        <v>6</v>
+      </c>
+      <c r="G12" s="5">
+        <v>7</v>
+      </c>
+      <c r="H12" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>1</v>
-      </c>
-      <c r="B12" s="7">
-        <v>2</v>
-      </c>
-      <c r="C12" s="7">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7">
-        <v>4</v>
-      </c>
-      <c r="E12" s="7">
-        <v>5</v>
-      </c>
-      <c r="F12" s="7">
-        <v>6</v>
-      </c>
-      <c r="G12" s="7">
-        <v>7</v>
-      </c>
-      <c r="H12" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
